--- a/2025-10-13/12_ai.full_fixtures.xlsx
+++ b/2025-10-13/12_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croatia - Gibraltar: 3:0</t>
+          <t>Croatia ✓ - Gibraltar: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,7 +507,11 @@
           <t>77%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
@@ -523,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bukovyna Chernivtsi - Podillya Khmelnytskyi: 2:0</t>
+          <t>Bukovyna Chernivtsi ✓ - Podillya Khmelnytskyi: 2:0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -542,7 +546,11 @@
           <t>76%</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
@@ -558,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louisville City FC - Miami FC: 1:0</t>
+          <t>Louisville City FC ✓ - Miami FC: 1:0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -577,7 +585,11 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -593,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Netherlands - Finland: 4:0</t>
+          <t>Netherlands ✓ - Finland: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -612,7 +624,11 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
@@ -628,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scotland - Belarus: 2:1</t>
+          <t>Scotland ✓ - Belarus: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -647,7 +663,11 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
@@ -663,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Romania - Austria: 1:0</t>
+          <t>Romania - Austria X: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -682,7 +702,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
@@ -698,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zambia - Niger: 0:1</t>
+          <t>Zambia X - Niger: 0:1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -717,7 +741,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
@@ -733,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Egypt - Guinea-Bissau: 1:0</t>
+          <t>Egypt ✓ - Guinea-Bissau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -752,7 +780,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
@@ -768,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CD Plaza Amador - CD Árabe Unido: 0:2</t>
+          <t>CD Plaza Amador X - CD Árabe Unido: 0:2</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -787,7 +819,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
@@ -803,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Atlético Tembetary - Club Libertad Asunción: 2:1</t>
+          <t>Atlético Tembetary - Club Libertad Asunción X: 2:1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -822,7 +858,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
@@ -838,7 +878,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Burkina Faso - Ethiopia: 3:1</t>
+          <t>Burkina Faso ✓ - Ethiopia: 3:1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -857,7 +897,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
@@ -873,7 +917,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ghana - Comoros: 1:0</t>
+          <t>Ghana ✓ - Comoros: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -892,7 +936,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
@@ -908,7 +956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mali - Madagascar: 4:1</t>
+          <t>Mali ✓ - Madagascar: 4:1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -927,7 +975,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
@@ -943,7 +995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima - Yokohama FC: 2:1</t>
+          <t>Sanfrecce Hiroshima ✓ - Yokohama FC: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -962,7 +1014,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
@@ -978,7 +1034,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PSS Sleman - Kendal Tornado FC: 3:1</t>
+          <t>PSS Sleman ✓ - Kendal Tornado FC: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -997,7 +1053,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
@@ -1013,7 +1073,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá - Club Aurora: 2:1</t>
+          <t>Club Deportivo Guabirá ✓ - Club Aurora: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1032,7 +1092,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
@@ -1048,7 +1112,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam - Fard Alborz: 0:0</t>
+          <t>Pars Jonoubi Jam  - Fard Alborz: 0:0</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1083,7 +1147,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Antigua GFC - Deportivo Achuapa: 02:00</t>
+          <t>Antigua GFC  - Deportivo Achuapa: 02:00</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1118,7 +1182,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CA Estudiantes - Club Deportivo Maipú: 1:0</t>
+          <t>CA Estudiantes ✓ - Club Deportivo Maipú: 1:0</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1137,7 +1201,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
@@ -1153,7 +1221,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons - Ansan Greeners: 0:1</t>
+          <t>Jeonnam Dragons X - Ansan Greeners: 0:1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1172,7 +1240,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
@@ -1188,7 +1260,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CSD Municipal - Cobán Imperial: 00:00</t>
+          <t>CSD Municipal  - Cobán Imperial: 00:00</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1223,7 +1295,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nations Football Club - Hohoe United Football Club: 16:00</t>
+          <t>Nations Football Club  - Hohoe United Football Club: 16:00</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1258,7 +1330,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Western Springs AFC - Auckland FC Reserves: 1:1</t>
+          <t>Western Springs AFC  - Auckland FC Reserves: 1:1</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1293,7 +1365,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Caguas Sporting FC - FC Mayagüez: 11:0</t>
+          <t>Caguas Sporting FC ✓ - FC Mayagüez: 11:0</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1312,7 +1384,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>11</v>
       </c>
@@ -1328,7 +1404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Kfar Saba: 2:2</t>
+          <t>Maccabi Herzliya  - Hapoel Kfar Saba: 2:2</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1363,7 +1439,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Suwon Samsung Bluewings - Cheonan City: 5:0</t>
+          <t>Suwon Samsung Bluewings ✓ - Cheonan City: 5:0</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1382,7 +1458,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
         <v>5</v>
       </c>
@@ -1398,7 +1478,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC Kiryat Yam - Hapoel Ramat Gan: 0:2</t>
+          <t>SC Kiryat Yam X - Hapoel Ramat Gan: 0:2</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1417,7 +1497,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
@@ -1433,7 +1517,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Charleston Battery - Colorado Springs Switchbacks FC: 00:30</t>
+          <t>Charleston Battery  - Colorado Springs Switchbacks FC: 00:30</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1468,7 +1552,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Universidad de Concepción - Curicó Unido: 2:0</t>
+          <t>Universidad de Concepción ✓ - Curicó Unido: 2:0</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1487,7 +1571,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
@@ -1503,7 +1591,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nasarawa United - Rangers International FC: 2:1</t>
+          <t>Nasarawa United ✓ - Rangers International FC: 2:1</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1522,7 +1610,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
@@ -1538,7 +1630,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Supreme FC - Tung Sing: 3:2</t>
+          <t>Supreme FC ✓ - Tung Sing: 3:2</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1557,7 +1649,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
@@ -1573,7 +1669,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Karela United FC - Dreams FC: 16:00</t>
+          <t>Karela United FC  - Dreams FC: 16:00</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1608,7 +1704,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CD Luis Angel Firpo - CD Cacahuatique: 3:0</t>
+          <t>CD Luis Angel Firpo ✓ - CD Cacahuatique: 3:0</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1627,7 +1723,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
@@ -1643,7 +1743,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Panionios Athens - GS Ilioupolis: 2:0</t>
+          <t>Panionios Athens ✓ - GS Ilioupolis: 2:0</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1662,7 +1762,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
@@ -1678,7 +1782,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán - Alianza FC: 1:0</t>
+          <t>AD Isidro Metapán - Alianza FC X: 1:0</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1697,7 +1801,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
@@ -1713,7 +1821,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hoi King - Bright Cerulean: 2:2</t>
+          <t>Hoi King  - Bright Cerulean: 2:2</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1748,7 +1856,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Karela United FC - Berekum Chelsea FC: 16:00</t>
+          <t>Karela United FC  - Berekum Chelsea FC: 16:00</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1783,7 +1891,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Inter Miami CF - Atlanta United FC: 4:0</t>
+          <t>Inter Miami CF ✓ - Atlanta United FC: 4:0</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1802,7 +1910,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
@@ -1818,7 +1930,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Faroe Islands - Czech Republic: 2:1</t>
+          <t>Faroe Islands - Czech Republic X: 2:1</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1837,7 +1949,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
@@ -1853,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PAS Giannina - Anagennisi Karditsas: 0:0</t>
+          <t>PAS Giannina - Anagennisi Karditsas : 0:0</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1888,7 +2004,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tlaxcala FC - Tampico Madero: 1:1</t>
+          <t>Tlaxcala FC - Tampico Madero : 1:1</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1923,7 +2039,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CD América de Cali - CD La Equidad Seguros SA: 3:2</t>
+          <t>CD América de Cali ✓ - CD La Equidad Seguros SA: 3:2</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1942,7 +2058,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>5</v>
       </c>
@@ -1958,7 +2078,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FC OshMU - Neftchi Kochkor-Ata: 1:0</t>
+          <t>FC OshMU ✓ - Neftchi Kochkor-Ata: 1:0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1977,7 +2097,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2117,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Club Atlético Morelia - CD Tapatío: 0:0</t>
+          <t>Club Atlético Morelia  - CD Tapatío: 0:0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2028,7 +2152,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CA River Plate - CA Sarmiento (Junin): 0:1</t>
+          <t>CA River Plate X - CA Sarmiento (Junin): 0:1</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2047,7 +2171,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
@@ -2063,7 +2191,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LD Alajuelense - CS Cartaginés: 03:00</t>
+          <t>LD Alajuelense  - CS Cartaginés: 03:00</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2098,7 +2226,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Malta - Bosnia-Herzegovina: 1:4</t>
+          <t>Malta - Bosnia-Herzegovina ✓: 1:4</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2117,7 +2245,11 @@
           <t>41%</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
         <v>5</v>
       </c>
@@ -2133,7 +2265,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CD FAS - CD Municipal Limeño: 1:1</t>
+          <t>CD FAS  - CD Municipal Limeño: 1:1</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2168,7 +2300,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Denmark - Greece: 3:1</t>
+          <t>Denmark - Greece X: 3:1</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2187,7 +2319,11 @@
           <t>40%</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H50" t="n">
         <v>4</v>
       </c>
@@ -2203,7 +2339,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Atlético Ottawa - Vancouver FC: 0:0</t>
+          <t>Atlético Ottawa  - Vancouver FC: 0:0</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2238,7 +2374,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Larne FC - Linfield FC: 15:00</t>
+          <t>Larne FC  - Linfield FC: 15:00</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2273,7 +2409,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22 de Julio FC - CSD Vargas Torres: 0:0</t>
+          <t>22 de Julio FC  - CSD Vargas Torres: 0:0</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2308,7 +2444,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AA Estudiantes (Río Cuarto) - CA Patronato: 2:1</t>
+          <t>AA Estudiantes (Río Cuarto) ✓ - CA Patronato: 2:1</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2327,7 +2463,11 @@
           <t>38%</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
@@ -2343,7 +2483,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Heart of Lions FC - Berekum Chelsea FC: 16:00</t>
+          <t>Heart of Lions FC  - Berekum Chelsea FC: 16:00</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2378,7 +2518,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe - Llaneros FC: 1:3</t>
+          <t>Independiente Santa Fe X - Llaneros FC: 1:3</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2397,7 +2537,11 @@
           <t>38%</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
@@ -2413,7 +2557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FC Résidence Walferdange - FC Mondercange: 1:2</t>
+          <t>FC Résidence Walferdange X - FC Mondercange: 1:2</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2432,7 +2576,11 @@
           <t>36%</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
@@ -2448,7 +2596,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FK Smiltene/BJSS - Riga Mariners: 12:00</t>
+          <t>FK Smiltene/BJSS - Riga Mariners : 12:00</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2483,7 +2631,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Danubio FC - Club Nacional: 0:0</t>
+          <t>Danubio FC - Club Nacional : 0:0</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2518,7 +2666,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv - Maccabi Jaffa: 0:1</t>
+          <t>Bnei Yehuda Tel Aviv X - Maccabi Jaffa: 0:1</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2537,7 +2685,11 @@
           <t>34%</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
@@ -2553,7 +2705,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FC Petrzalka - Inter Bratislava: 0:1</t>
+          <t>FC Petrzalka X - Inter Bratislava: 0:1</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2572,7 +2724,11 @@
           <t>34%</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
@@ -2588,7 +2744,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FC Wiltz 71 - US Feulen: 1:0</t>
+          <t>FC Wiltz 71 ✓ - US Feulen: 1:0</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2607,7 +2763,11 @@
           <t>34%</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
@@ -2623,7 +2783,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds SC - Indy Eleven: 2:1</t>
+          <t>Pittsburgh Riverhounds SC ✓ - Indy Eleven: 2:1</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2642,7 +2802,11 @@
           <t>33%</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
@@ -2658,7 +2822,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FCI Levadia - FC Flora Tallinn U21: 4:0</t>
+          <t>FCI Levadia ✓ - FC Flora Tallinn U21: 4:0</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2677,7 +2841,11 @@
           <t>33%</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H64" t="n">
         <v>4</v>
       </c>
@@ -2693,7 +2861,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Atlético Vinotinto - Imbabura SC: 1:1</t>
+          <t>Atlético Vinotinto  - Imbabura SC: 1:1</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2728,7 +2896,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hearts of Oak - Asante Kotoko SC: 16:00</t>
+          <t>Hearts of Oak  - Asante Kotoko SC: 16:00</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2763,7 +2931,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FC Rànger's - Club Esportiu Carroi: 3:0</t>
+          <t>FC Rànger's ✓ - Club Esportiu Carroi: 3:0</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2782,7 +2950,11 @@
           <t>31%</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
@@ -2798,7 +2970,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Montevideo City Torque - Montevideo Wanderers: 2:2</t>
+          <t>Montevideo City Torque  - Montevideo Wanderers: 2:2</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2833,7 +3005,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FC Samartex - Swedru All Blacks United FC: 16:00</t>
+          <t>FC Samartex  - Swedru All Blacks United FC: 16:00</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2868,7 +3040,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>South China - Shatin: 5:0</t>
+          <t>South China ✓ - Shatin: 5:0</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2887,7 +3059,11 @@
           <t>30%</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H70" t="n">
         <v>5</v>
       </c>
@@ -2903,7 +3079,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Universidad César Vallejo - FC Cajamarca: 19:15</t>
+          <t>Universidad César Vallejo  - FC Cajamarca: 19:15</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2938,7 +3114,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vision FC - Eleven Wonders FC: 16:00</t>
+          <t>Vision FC  - Eleven Wonders FC: 16:00</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2973,7 +3149,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cusco FC - Comerciantes Unidos: 00:00</t>
+          <t>Cusco FC  - Comerciantes Unidos: 00:00</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3008,7 +3184,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dunbeholden FC - Arnett Gardens FC: 21:00</t>
+          <t>Dunbeholden FC - Arnett Gardens FC : 21:00</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3043,7 +3219,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CD Cobreloa - Deportes Temuco: 2:1</t>
+          <t>CD Cobreloa ✓ - Deportes Temuco: 2:1</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3062,7 +3238,11 @@
           <t>28%</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H75" t="n">
         <v>3</v>
       </c>
@@ -3078,7 +3258,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Heidelberg United FC - Marconi Stallions FC: 1:0</t>
+          <t>Heidelberg United FC ✓ - Marconi Stallions FC: 1:0</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3097,7 +3277,11 @@
           <t>27%</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
@@ -3113,7 +3297,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano - Club Guaraní: 0:1</t>
+          <t>Sportivo Ameliano - Club Guaraní ✓: 0:1</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3132,7 +3316,11 @@
           <t>26%</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3336,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lithuania - Poland: 0:2</t>
+          <t>Lithuania - Poland ✓: 0:2</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3167,7 +3355,11 @@
           <t>25%</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
@@ -3183,7 +3375,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NK Dugopolje - NK Sesvete: 1:1</t>
+          <t>NK Dugopolje - NK Sesvete : 1:1</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3218,7 +3410,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cádiz CF - SD Huesca: 1:0</t>
+          <t>Cádiz CF ✓ - SD Huesca: 1:0</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3237,7 +3429,11 @@
           <t>25%</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
@@ -3253,7 +3449,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FC Samartex - Eleven Wonders FC: 2:1</t>
+          <t>FC Samartex ✓ - Eleven Wonders FC: 2:1</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3272,7 +3468,11 @@
           <t>24%</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
@@ -3288,7 +3488,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wofoo Social Enterprises - Central &amp; Western District: 3:1</t>
+          <t>Wofoo Social Enterprises ✓ - Central &amp; Western District: 3:1</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3307,7 +3507,11 @@
           <t>24%</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H82" t="n">
         <v>4</v>
       </c>
@@ -3323,7 +3527,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Djibouti - Sierra Leone: 1:2</t>
+          <t>Djibouti - Sierra Leone ✓: 1:2</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3342,7 +3546,11 @@
           <t>23%</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H83" t="n">
         <v>3</v>
       </c>
@@ -3358,7 +3566,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Saipa FC - Naft va Gaz Gachsaran: 16:00</t>
+          <t>Saipa FC  - Naft va Gaz Gachsaran: 16:00</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3393,7 +3601,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FK Otrant-Olympic Ulcinj - Rudar Pljevlja: 6:2</t>
+          <t>FK Otrant-Olympic Ulcinj ✓ - Rudar Pljevlja: 6:2</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3412,7 +3620,11 @@
           <t>23%</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H85" t="n">
         <v>8</v>
       </c>
@@ -3428,7 +3640,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Coastal Spirit FC - Wellington Olympic AFC: 1:3</t>
+          <t>Coastal Spirit FC - Wellington Olympic AFC ✓: 1:3</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3447,7 +3659,11 @@
           <t>22%</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H86" t="n">
         <v>4</v>
       </c>
@@ -3463,7 +3679,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mexico - Colombia: 0:4</t>
+          <t>Mexico X - Colombia: 0:4</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3482,7 +3698,11 @@
           <t>22%</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H87" t="n">
         <v>4</v>
       </c>
@@ -3498,7 +3718,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Resources Capital - Yuen Long: 0:0</t>
+          <t>Resources Capital  - Yuen Long: 0:0</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3533,31 +3753,35 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hapoel Rishon leZion - Hapoel Kfar Shalem: 17:00</t>
+          <t>Seattle Sounders FC ✓ - Real Salt Lake City: 1:0</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.65</v>
+        <v>2.33</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hapoel Rishon leZion</t>
+          <t>Seattle Sounders FC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H89" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3568,15 +3792,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Seattle Sounders FC - Real Salt Lake City: 1:0</t>
+          <t>New Mexico United  - Orange County SC: 3:3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Seattle Sounders FC</t>
+          <t>New Mexico United</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3589,10 +3813,10 @@
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3603,19 +3827,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>New Mexico United - Orange County SC: 3:3</t>
+          <t>Deportivo Mixco  - CD Malacateco: 21:00</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>New Mexico United</t>
+          <t>Deportivo Mixco</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3624,7 +3848,7 @@
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -3638,15 +3862,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Deportivo Mixco - CD Malacateco: 21:00</t>
+          <t>FC Etzella Ettelbruck ✓ - FC Koeppchen: 2:0</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Deportivo Mixco</t>
+          <t>FC Etzella Ettelbruck</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3657,12 +3881,16 @@
           <t>21%</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3673,31 +3901,35 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FC Etzella Ettelbruck - FC Koeppchen: 2:0</t>
+          <t>Club Independiente Petrolero X - San Antonio Bulo Bulo: 1:3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.81</v>
+        <v>2.56</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FC Etzella Ettelbruck</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3708,28 +3940,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero - San Antonio Bulo Bulo: 1:3</t>
+          <t>Cavalier FC X - Portmore United FC: 2:4</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.56</v>
+        <v>0.65</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Cavalier FC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -3743,28 +3979,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cavalier FC - Portmore United FC: 2:4</t>
+          <t>Grêmio Novorizontino ✓ - Operário Ferroviário Esporte Clube (PR): 3:0</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.65</v>
+        <v>1.17</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cavalier FC</t>
+          <t>Grêmio Novorizontino</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3778,19 +4018,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino - Operário Ferroviário Esporte Clube (PR): 3:0</t>
+          <t>NK Croatia Zmijavci  - NK Jarun: 2:2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino</t>
+          <t>NK Croatia Zmijavci</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3799,7 +4039,7 @@
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -3813,19 +4053,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NK Croatia Zmijavci - NK Jarun: 2:2</t>
+          <t>Cumbayá FC  - Chacaritas FC: 0:0</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.91</v>
+        <v>2.32</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NK Croatia Zmijavci</t>
+          <t>Cumbayá FC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3834,10 +4074,10 @@
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3848,28 +4088,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cumbayá FC - Chacaritas FC: 0:0</t>
+          <t>Talant Besh-Küngöy ✓ - FK Ilbirs Bishkek: 1:0</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.32</v>
+        <v>1.48</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cumbayá FC</t>
+          <t>Talant Besh-Küngöy</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
@@ -3883,15 +4127,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Talant Besh-Küngöy - FK Ilbirs Bishkek: 1:0</t>
+          <t>CSD Tristan Suarez ✓ - CA Agropecuario: 2:1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Talant Besh-Küngöy</t>
+          <t>CSD Tristan Suarez</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3902,12 +4146,16 @@
           <t>20%</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3918,15 +4166,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CSD Tristan Suarez - CA Agropecuario: 2:1</t>
+          <t>Dingnan United - Nantong Zhiyun : 1:1</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CSD Tristan Suarez</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3939,10 +4187,10 @@
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3953,15 +4201,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dingnan United - Nantong Zhiyun: 1:1</t>
+          <t>FC Tulsa ✓ - San Antonio FC: 2:0</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.15</v>
+        <v>1.64</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>FC Tulsa</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3972,7 +4220,11 @@
           <t>20%</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H101" t="n">
         <v>2</v>
       </c>
@@ -3988,15 +4240,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FC Tulsa - San Antonio FC: 2:0</t>
+          <t>Criciúma Esporte Clube ✓ - América Futebol Clube (MG): 2:1</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Criciúma Esporte Clube</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4004,15 +4256,19 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4023,31 +4279,35 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube - América Futebol Clube (MG): 2:1</t>
+          <t>Grenada ✓ - Cuba: 2:0</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.59</v>
+        <v>2.23</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4058,31 +4318,35 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Grenada - Cuba: 2:0</t>
+          <t>Málaga CF - Deportivo de La Coruña X: 3:0</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2.23</v>
+        <v>1.19</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Deportivo de La Coruña</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4093,26 +4357,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Málaga CF - Deportivo de La Coruña: 3:0</t>
+          <t>CA Vélez Sarsfield X - CA Rosario Central: 1:2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.19</v>
+        <v>0.58</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Deportivo de La Coruña</t>
+          <t>CA Vélez Sarsfield</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H105" t="n">
         <v>3</v>
       </c>
@@ -4128,19 +4396,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CA Vélez Sarsfield - CA Rosario Central: 1:2</t>
+          <t>Hearts of Oak  - Heart of Lions FC: 16:00</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.58</v>
+        <v>1.51</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CA Vélez Sarsfield</t>
+          <t>Hearts of Oak</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4149,7 +4417,7 @@
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4163,19 +4431,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hearts of Oak - Heart of Lions FC: 16:00</t>
+          <t>Rivers United FC  - Bayelsa United: 16:00</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.51</v>
+        <v>0.41</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hearts of Oak</t>
+          <t>Rivers United FC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4198,28 +4466,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rivers United FC - Bayelsa United: 16:00</t>
+          <t>Athens Kallithea X - Olympiacos Piraeus B: 2:3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.41</v>
+        <v>1.12</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rivers United FC</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4233,15 +4505,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Athens Kallithea - Olympiacos Piraeus B: 2:3</t>
+          <t>Sumsel United FC ✓ - Persekat Tegal: 2:0</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Sumsel United FC</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4252,12 +4524,16 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H109" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4268,15 +4544,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sumsel United FC - Persekat Tegal: 2:0</t>
+          <t>FK Iskra Danilovgrad X - FK Lovcen Cetinje: 0:1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sumsel United FC</t>
+          <t>FK Iskra Danilovgrad</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4287,9 +4563,13 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -4303,15 +4583,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad - FK Lovcen Cetinje: 0:1</t>
+          <t>Medeama SC  - Dreams FC: 16:00</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad</t>
+          <t>Medeama SC</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4324,10 +4604,10 @@
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4338,15 +4618,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Medeama SC - Dreams FC: 16:00</t>
+          <t>SD Eibar  - CD Castellón: 0:0</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Medeama SC</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4359,10 +4639,10 @@
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4373,15 +4653,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SD Eibar - CD Castellón: 0:0</t>
+          <t>Aduana Stars FC ✓ - Bechem United FC: 2:1</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Aduana Stars FC</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4392,12 +4672,16 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4408,15 +4692,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Aduana Stars FC - Bechem United FC: 2:1</t>
+          <t>Alianza Atlético Sullana ✓ - CD Los Chankas: 1:0</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Aduana Stars FC</t>
+          <t>Alianza Atlético Sullana</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4427,12 +4711,16 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4443,26 +4731,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Alianza Atlético Sullana - CD Los Chankas: 1:0</t>
+          <t>NK Dekani - ND Beltinci ✓: 0:1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.41</v>
+        <v>2.69</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Alianza Atlético Sullana</t>
+          <t>ND Beltinci</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>18%</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H115" t="n">
         <v>1</v>
       </c>
@@ -4478,15 +4770,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NK Dekani - ND Beltinci: 0:1</t>
+          <t>Deportivo Moquegua - CD Unión Comercio X: 2:1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ND Beltinci</t>
+          <t>CD Unión Comercio</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4497,9 +4789,13 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -4513,31 +4809,35 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Deportivo Moquegua - CD Unión Comercio: 2:1</t>
+          <t>Plateau United FC ✓ - Barau Football Club: 2:0</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.49</v>
+        <v>0.85</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CD Unión Comercio</t>
+          <t>Plateau United FC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>18%</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4548,19 +4848,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Plateau United FC - Barau Football Club: 2:0</t>
+          <t>Albacete Balompié  - AD Ceuta FC: 0:0</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.85</v>
+        <v>1.68</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Plateau United FC</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4569,10 +4869,10 @@
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4583,15 +4883,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Albacete Balompié - AD Ceuta FC: 0:0</t>
+          <t>Persiba Balikpapan X - Persela Lamongan: 0:3</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Persiba Balikpapan</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4599,15 +4899,19 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4618,15 +4922,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Persiba Balikpapan - Persela Lamongan: 0:3</t>
+          <t>Chungnam Asan ✓ - Gyeongnam FC: 1:0</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Persiba Balikpapan</t>
+          <t>Chungnam Asan</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4637,12 +4941,16 @@
           <t>17%</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4653,15 +4961,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chungnam Asan - Gyeongnam FC: 1:0</t>
+          <t>Aduana Stars FC  - Medeama SC: 16:00</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Chungnam Asan</t>
+          <t>Aduana Stars FC</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4674,10 +4982,10 @@
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4688,28 +4996,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Aduana Stars FC - Medeama SC: 16:00</t>
+          <t>Club de Gimnasia y Tiro ✓ - CA Temperley: 2:0</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.98</v>
+        <v>0.52</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Aduana Stars FC</t>
+          <t>Club de Gimnasia y Tiro</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H122" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4723,15 +5035,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Club de Gimnasia y Tiro - CA Temperley: 2:0</t>
+          <t>CA Cerro - Defensor Sporting Club X: 1:0</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.52</v>
+        <v>0.91</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Club de Gimnasia y Tiro</t>
+          <t>Defensor Sporting Club</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4742,12 +5054,16 @@
           <t>17%</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4758,19 +5074,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CA Cerro - Defensor Sporting Club: 1:0</t>
+          <t>Niva Dolbizno  - FC Minsk 2: 2:2</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.91</v>
+        <v>1.42</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Defensor Sporting Club</t>
+          <t>Niva Dolbizno</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4779,10 +5095,10 @@
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4793,31 +5109,35 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Niva Dolbizno - FC Minsk 2: 2:2</t>
+          <t>Citizen X - Sham Shui Po: 2:3</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.42</v>
+        <v>4.72</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Niva Dolbizno</t>
+          <t>Citizen</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4828,19 +5148,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Citizen - Sham Shui Po: 2:3</t>
+          <t>FK Loznica  - FK Kabel Novi Sad: 1:1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4.72</v>
+        <v>0.4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Citizen</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4849,10 +5169,10 @@
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4863,19 +5183,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FK Loznica - FK Kabel Novi Sad: 1:1</t>
+          <t>Seongnam FC - Incheon United : 2:2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.4</v>
+        <v>1.29</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4884,7 +5204,7 @@
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -4898,15 +5218,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Seongnam FC - Incheon United: 2:2</t>
+          <t>FK Vozdovac  - OFK Vrsac: 0:0</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>FK Vozdovac</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4919,10 +5239,10 @@
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4933,31 +5253,35 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FK Vozdovac - OFK Vrsac: 0:0</t>
+          <t>Albion FC ✓ - CA Rentistas: 4:1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FK Vozdovac</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4968,15 +5292,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Albion FC - CA Rentistas: 4:1</t>
+          <t>Rotor Volgograd ✓ - Chernomorets Novorossijsk: 2:0</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Rotor Volgograd</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4987,9 +5311,13 @@
           <t>17%</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -5003,31 +5331,35 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Rotor Volgograd - Chernomorets Novorossijsk: 2:0</t>
+          <t>Probiy Gorodenka - Ingulets Petrove ✓: 0:1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.83</v>
+        <v>2.19</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Rotor Volgograd</t>
+          <t>Ingulets Petrove</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5038,28 +5370,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Probiy Gorodenka - Ingulets Petrove: 0:1</t>
+          <t>Molynes United FC - Montego Bay United FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ingulets Petrove</t>
+          <t>Montego Bay United FC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -5073,31 +5409,35 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Molynes United FC - Montego Bay United FC: 0:2</t>
+          <t>OFK Grbalj ✓ - FK Berane: 2:1</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.95</v>
+        <v>0.42</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Montego Bay United FC</t>
+          <t>OFK Grbalj</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5108,26 +5448,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>OFK Grbalj - FK Berane: 2:1</t>
+          <t>Busan IPark X - Bucheon FC 1995: 1:2</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.42</v>
+        <v>1.64</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>OFK Grbalj</t>
+          <t>Busan IPark</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H134" t="n">
         <v>3</v>
       </c>
@@ -5143,31 +5487,35 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Busan IPark - Bucheon FC 1995: 1:2</t>
+          <t>SC Bettembourg ✓ - US Rumelange: 2:1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.64</v>
+        <v>2.17</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Busan IPark</t>
+          <t>SC Bettembourg</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H135" t="n">
         <v>3</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5178,19 +5526,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SC Bettembourg - US Rumelange: 2:1</t>
+          <t>Santiago Wanderers  - Deportes Concepción: 2:2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SC Bettembourg</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5199,10 +5547,10 @@
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5213,28 +5561,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Santiago Wanderers - Deportes Concepción: 2:2</t>
+          <t>Racing United FC ✓ - Spanish Town Police FC: 3:0</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.99</v>
+        <v>0.98</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Racing United FC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
@@ -5248,31 +5600,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Racing United FC - Spanish Town Police FC: 3:0</t>
+          <t>Persiraja Banda Aceh  - FC Bekasi City: 1:1</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.98</v>
+        <v>2.2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Racing United FC</t>
+          <t>Persiraja Banda Aceh</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5283,15 +5635,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Persiraja Banda Aceh - FC Bekasi City: 1:1</t>
+          <t>Kashiwa Reysol ✓ - Kawasaki Frontale: 4:1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Persiraja Banda Aceh</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5302,12 +5654,16 @@
           <t>15%</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5318,28 +5674,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol - Kawasaki Frontale: 4:1</t>
+          <t>CA Artigas - CA Atenas de San Carlos ✓: 1:7</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>CA Atenas de San Carlos</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -5353,15 +5713,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CA Artigas - CA Atenas de San Carlos: 1:7</t>
+          <t>Ikorodu City FC ✓ - Bendel Insurance: 1:0</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CA Atenas de San Carlos</t>
+          <t>Ikorodu City FC</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5369,15 +5729,19 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5388,15 +5752,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ikorodu City FC - Bendel Insurance: 1:0</t>
+          <t>Club Atlético Belgrano  - Club Estudiantes de La Plata: 1:1</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ikorodu City FC</t>
+          <t>Club Atlético Belgrano</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5409,7 +5773,7 @@
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -5423,31 +5787,35 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano - Club Estudiantes de La Plata: 1:1</t>
+          <t>Katsina United FC ✓ - Remo Stars FC: 3:1</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.91</v>
+        <v>0.74</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano</t>
+          <t>Katsina United FC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5458,31 +5826,35 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Katsina United FC - Remo Stars FC: 3:1</t>
+          <t>Puerto Rico Surf ✓ - DS Edusoccer: 2:0</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.74</v>
+        <v>2.39</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Katsina United FC</t>
+          <t>Puerto Rico Surf</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5493,28 +5865,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Puerto Rico Surf - DS Edusoccer: 2:0</t>
+          <t>FK Smederevo 1924 - FK Zemun ✓: 0:1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2.39</v>
+        <v>1.54</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Puerto Rico Surf</t>
+          <t>FK Zemun</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>13%</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -5528,15 +5904,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FK Smederevo 1924 - FK Zemun: 0:1</t>
+          <t>Basake Holy Stars FC - Bibiani Gold Stars FC : 16:00</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FK Zemun</t>
+          <t>Bibiani Gold Stars FC</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5549,10 +5925,10 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5563,15 +5939,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Basake Holy Stars FC - Bibiani Gold Stars FC: 16:00</t>
+          <t>Palayesh Naft Bandar Abbas ✓ - Mes Soongoun Varzaghan: 1:0</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Bibiani Gold Stars FC</t>
+          <t>Palayesh Naft Bandar Abbas</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5582,12 +5958,16 @@
           <t>13%</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5598,15 +5978,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Palayesh Naft Bandar Abbas - Mes Soongoun Varzaghan: 1:0</t>
+          <t>Burgos CF X - Real Valladolid CF: 0:1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Palayesh Naft Bandar Abbas</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5617,7 +5997,11 @@
           <t>13%</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H148" t="n">
         <v>1</v>
       </c>
@@ -5633,19 +6017,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Burgos CF - Real Valladolid CF: 0:1</t>
+          <t>Aragua FC  - Deportivo Miranda FC: 21:00</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.57</v>
+        <v>0.68</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Aragua FC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5654,10 +6038,10 @@
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5668,15 +6052,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Aragua FC - Deportivo Miranda FC: 21:00</t>
+          <t>Warri Wolves FC  - Niger Tornadoes: 1:1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Aragua FC</t>
+          <t>Warri Wolves FC</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5689,7 +6073,7 @@
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -5703,31 +6087,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Warri Wolves FC - Niger Tornadoes: 1:1</t>
+          <t>CS Independiente Rivadavia  - CD Godoy Cruz Antonio Tomba: 0:0</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.39</v>
+        <v>1.19</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Warri Wolves FC</t>
+          <t>CS Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5738,15 +6122,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CS Independiente Rivadavia - CD Godoy Cruz Antonio Tomba: 0:0</t>
+          <t>Ayacucho FC - Asociación Deportiva Tarma : 2:2</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CS Independiente Rivadavia</t>
+          <t>Asociación Deportiva Tarma</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5759,10 +6143,10 @@
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5773,15 +6157,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ayacucho FC - Asociación Deportiva Tarma: 2:2</t>
+          <t>Mount Pleasant FA ✓ - Chapelton Maroons: 3:1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Asociación Deportiva Tarma</t>
+          <t>Mount Pleasant FA</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5792,7 +6176,11 @@
           <t>12%</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H153" t="n">
         <v>4</v>
       </c>
@@ -5808,15 +6196,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mount Pleasant FA - Chapelton Maroons: 3:1</t>
+          <t>Nations Football Club  - Asante Kotoko SC: 16:00</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.93</v>
+        <v>1.31</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Mount Pleasant FA</t>
+          <t>Nations Football Club</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5829,7 +6217,7 @@
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -5843,15 +6231,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nations Football Club - Asante Kotoko SC: 16:00</t>
+          <t>Tivoli Gardens FC ✓ - Harbour View FC: 2:1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Nations Football Club</t>
+          <t>Tivoli Gardens FC</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5862,9 +6250,13 @@
           <t>12%</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H155" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -5878,28 +6270,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tivoli Gardens FC - Harbour View FC: 2:1</t>
+          <t>Club Deportivo Oriente Petrolero ✓ - Gualberto Villarroel San José: 4:0</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tivoli Gardens FC</t>
+          <t>Club Deportivo Oriente Petrolero</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>12%</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -5913,28 +6309,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero - Gualberto Villarroel San José: 4:0</t>
+          <t>Bogotá FC - Real Cundinamarca ✓: 0:3</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>12%</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -5948,15 +6348,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bogotá FC - Real Cundinamarca: 0:3</t>
+          <t>Titanes FC  - Barquisimeto Sport Club: 20:30</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Titanes FC</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5969,7 +6369,7 @@
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -5983,7 +6383,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Titanes FC - Barquisimeto Sport Club: 20:30</t>
+          <t>Titanes FC  - Barquisimeto SC: 20:30</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -6018,31 +6418,35 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Titanes FC - Barquisimeto SC: 20:30</t>
+          <t>Orlando City SC X - Vancouver Whitecaps FC: 1:2</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.44</v>
+        <v>2.45</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Titanes FC</t>
+          <t>Orlando City SC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H160" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6053,28 +6457,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Orlando City SC - Vancouver Whitecaps FC: 1:2</t>
+          <t>Niroye Zamini FC ✓ - Shenavar Sazi Qeshm: 1:0</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2.45</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Orlando City SC</t>
+          <t>Niroye Zamini FC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
@@ -6088,31 +6496,35 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC - Shenavar Sazi Qeshm: 1:0</t>
+          <t>Hohoe United Football Club ✓ - Swedru All Blacks United FC: 2:0</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC</t>
+          <t>Hohoe United Football Club</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6123,31 +6535,35 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hohoe United Football Club - Swedru All Blacks United FC: 2:0</t>
+          <t>Los Angeles Galaxy ✓ - FC Dallas: 2:1</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Hohoe United Football Club</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6158,31 +6574,35 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy - FC Dallas: 2:1</t>
+          <t>CA Juventud X - CA River Plate Montevideo: 1:2</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.86</v>
+        <v>0.8</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>CA Juventud</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H164" t="n">
         <v>3</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6193,19 +6613,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CA Juventud - CA River Plate Montevideo: 1:2</t>
+          <t>Suzhou Dongwu  - Yanbian Longding: 1:1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CA Juventud</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6214,10 +6634,10 @@
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6228,28 +6648,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu - Yanbian Longding: 1:1</t>
+          <t>BATE 2 Borisov - FK Lida X: 2:1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.01</v>
+        <v>2.59</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>FK Lida</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
@@ -6263,31 +6687,35 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BATE 2 Borisov - FK Lida: 2:1</t>
+          <t>Abia Warriors FC ✓ - El-Kanemi Warriors: 2:0</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2.59</v>
+        <v>0.82</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>FK Lida</t>
+          <t>Abia Warriors FC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6298,31 +6726,35 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Abia Warriors FC - El-Kanemi Warriors: 2:0</t>
+          <t>FC The Belval Belvaux ✓ - FC Lorentzweiler: 3:0</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.82</v>
+        <v>3.07</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Abia Warriors FC</t>
+          <t>FC The Belval Belvaux</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6333,28 +6765,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FC The Belval Belvaux - FC Lorentzweiler: 3:0</t>
+          <t>Instituto ACC ✓ - Club Atlético Tucumán: 2:0</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3.07</v>
+        <v>1.43</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>FC The Belval Belvaux</t>
+          <t>Instituto ACC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
@@ -6368,31 +6804,35 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Instituto ACC - Club Atlético Tucumán: 2:0</t>
+          <t>Rhode Island FC ✓ - Tampa Bay Rowdies: 5:0</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Instituto ACC</t>
+          <t>Rhode Island FC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6403,31 +6843,35 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rhode Island FC - Tampa Bay Rowdies: 5:0</t>
+          <t>CD Platense Zacatecoluca ✓ - Inter FA: 1:0</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.14</v>
+        <v>0.91</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>CD Platense Zacatecoluca</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H171" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6438,28 +6882,28 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CD Platense Zacatecoluca - Inter FA: 1:0</t>
+          <t>Treasure Beach FC  - Waterhouse FC: 0:0</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.91</v>
+        <v>1.75</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CD Platense Zacatecoluca</t>
+          <t>Treasure Beach FC</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -6473,15 +6917,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Treasure Beach FC - Waterhouse FC: 0:0</t>
+          <t>Hapoel Afula - Hapoel Acre : 2:2</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Treasure Beach FC</t>
+          <t>Hapoel Acre</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6494,10 +6938,10 @@
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6508,15 +6952,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hapoel Afula - Hapoel Acre: 2:2</t>
+          <t>AO Kavala - PAOK Thessaloniki B : 1:1</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>PAOK Thessaloniki B</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6524,15 +6968,15 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6543,19 +6987,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AO Kavala - PAOK Thessaloniki B: 1:1</t>
+          <t>Vision FC  - Bibiani Gold Stars FC: 16:00</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki B</t>
+          <t>Vision FC</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6564,10 +7008,10 @@
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6578,31 +7022,35 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Vision FC - Bibiani Gold Stars FC: 16:00</t>
+          <t>Lucky Mile ✓ - Kwun Tong: 2:1</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Vision FC</t>
+          <t>Lucky Mile</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H176" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6613,28 +7061,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lucky Mile - Kwun Tong: 2:1</t>
+          <t>Vila Nova Futebol Clube (GO) ✓ - Amazonas FC: 1:0</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.93</v>
+        <v>1.69</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Lucky Mile</t>
+          <t>Vila Nova Futebol Clube (GO)</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
@@ -6648,19 +7100,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vila Nova Futebol Clube (GO) - Amazonas FC: 1:0</t>
+          <t>Wikki Tourists  - Kwara United FC: 1:1</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.69</v>
+        <v>0.62</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Vila Nova Futebol Clube (GO)</t>
+          <t>Wikki Tourists</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6669,10 +7121,10 @@
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6683,31 +7135,35 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Wikki Tourists - Kwara United FC: 1:1</t>
+          <t>Kowloon City ✓ - Eastern District: 2:1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.62</v>
+        <v>2.62</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Wikki Tourists</t>
+          <t>Kowloon City</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6718,31 +7174,35 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Kowloon City - Eastern District: 2:1</t>
+          <t>Hapoel Raanana X - Hapoel Hadera: 0:3</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.62</v>
+        <v>1.3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Kowloon City</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H180" t="n">
         <v>3</v>
       </c>
       <c r="I180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6753,15 +7213,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hapoel Raanana - Hapoel Hadera: 0:3</t>
+          <t>Alianza FC - Junior FC ✓: 0:1</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hapoel Raanana</t>
+          <t>Junior FC</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -6769,15 +7229,19 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6788,15 +7252,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Alianza FC - Junior FC: 0:1</t>
+          <t>Kano Pillars  - Shooting Stars Sports Club: 1:1</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Junior FC</t>
+          <t>Kano Pillars</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -6809,7 +7273,7 @@
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
@@ -6823,19 +7287,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Kano Pillars - Shooting Stars Sports Club: 1:1</t>
+          <t>Niroye Zamini FC  - Shahrdari Nowshahr: 14:00</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.24</v>
+        <v>0.58</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Kano Pillars</t>
+          <t>Niroye Zamini FC</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6844,10 +7308,10 @@
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6858,19 +7322,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC - Shahrdari Nowshahr: 14:00</t>
+          <t>Unión San Felipe  - Deportes Santa Cruz: 0:0</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.58</v>
+        <v>1.15</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6879,10 +7343,10 @@
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6893,31 +7357,35 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Unión San Felipe - Deportes Santa Cruz: 0:0</t>
+          <t>San Marino - Cyprus ✓: 0:4</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6928,26 +7396,30 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Marino - Cyprus: 0:4</t>
+          <t>San Antonio FC X - Guayaquil City FC: 1:3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2.02</v>
+        <v>0.78</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>San Antonio FC</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H186" t="n">
         <v>4</v>
       </c>
@@ -6963,31 +7435,35 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Antonio FC - Guayaquil City FC: 1:3</t>
+          <t>SU Dinamo Jug ✓ - FK Borac 1926 Cacak: 1:0</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.78</v>
+        <v>1.24</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>San Antonio FC</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6998,15 +7474,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug - FK Borac 1926 Cacak: 1:0</t>
+          <t>Las Vegas Lights FC  - Oakland Roots SC: 2:2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug</t>
+          <t>Las Vegas Lights FC</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -7019,10 +7495,10 @@
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7033,19 +7509,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Las Vegas Lights FC - Oakland Roots SC: 2:2</t>
+          <t>FK Internacional  - Kom Podgorica: 16:00</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Las Vegas Lights FC</t>
+          <t>FK Internacional</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7054,7 +7530,7 @@
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
@@ -7068,19 +7544,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FK Internacional - Kom Podgorica: 16:00</t>
+          <t>CS Cerrito  - Club Oriental: 19:00</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>FK Internacional</t>
+          <t>CS Cerrito</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7089,7 +7565,7 @@
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
@@ -7103,15 +7579,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CS Cerrito - Club Oriental: 19:00</t>
+          <t>FC Schifflange 95 ✓ - FC Luxembourg City: 4:0</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CS Cerrito</t>
+          <t>FC Schifflange 95</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7122,9 +7598,13 @@
           <t>9%</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H191" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -7138,19 +7618,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FC Schifflange 95 - FC Luxembourg City: 4:0</t>
+          <t>Hapoel Nof HaGalil  - SC Kfar Qasem: 1:1</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.47</v>
+        <v>0.91</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>FC Schifflange 95</t>
+          <t>Hapoel Nof HaGalil</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7159,7 +7639,7 @@
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
@@ -7173,31 +7653,35 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hapoel Nof HaGalil - SC Kfar Qasem: 1:1</t>
+          <t>Sporting Gijón - Racing Santander X: 2:1</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.91</v>
+        <v>2.35</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hapoel Nof HaGalil</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -7208,15 +7692,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sporting Gijón - Racing Santander: 2:1</t>
+          <t>Unión Española ✓ - Huachipato FC: 4:2</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7227,12 +7711,16 @@
           <t>8%</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -7243,28 +7731,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Unión Española - Huachipato FC: 4:2</t>
+          <t>Hartford Athletic ✓ - Sacramento Republic FC: 3:2</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
@@ -7278,19 +7770,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Hartford Athletic - Sacramento Republic FC: 3:2</t>
+          <t>Shenzhen Juniors - Shaanxi Union : 3:3</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.49</v>
+        <v>2.74</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Shaanxi Union</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -7299,7 +7791,7 @@
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -7313,19 +7805,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Shenzhen Juniors - Shaanxi Union: 3:3</t>
+          <t>ND Gorica  - ND Slovan Ljubljana: 1:1</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2.74</v>
+        <v>1.47</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Shaanxi Union</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -7334,10 +7826,10 @@
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7348,15 +7840,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ND Gorica - ND Slovan Ljubljana: 1:1</t>
+          <t>Young Apostles FC ✓ - Basake Holy Stars FC: 2:0</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Young Apostles FC</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7364,10 +7856,14 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
@@ -7383,15 +7879,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Young Apostles FC - Basake Holy Stars FC: 2:0</t>
+          <t>CD Hércules  - Zacatecoluca FC: 1:1</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Young Apostles FC</t>
+          <t>CD Hércules</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7418,19 +7914,19 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CD Hércules - Zacatecoluca FC: 1:1</t>
+          <t>Club Atlético Gimnasia y Esgrima (Jujuy)  - CA San Miguel: 0:0</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.05</v>
+        <v>0.41</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>CD Hércules</t>
+          <t>Club Atlético Gimnasia y Esgrima (Jujuy)</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -7439,7 +7935,7 @@
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -7453,28 +7949,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Club Atlético Gimnasia y Esgrima (Jujuy) - CA San Miguel: 0:0</t>
+          <t>Mineros de Zacatecas ✓ - CD Leones Negros de la UdeG: 2:0</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.41</v>
+        <v>1.72</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Club Atlético Gimnasia y Esgrima (Jujuy)</t>
+          <t>Mineros de Zacatecas</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -7488,28 +7988,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas - CD Leones Negros de la UdeG: 2:0</t>
+          <t>Lexington SC X - El Paso Locomotive FC: 1:2</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.72</v>
+        <v>2.31</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas</t>
+          <t>Lexington SC</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
@@ -7523,15 +8027,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Lexington SC - El Paso Locomotive FC: 1:2</t>
+          <t>Deportes La Serena X - Deportes Limache: 1:6</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2.31</v>
+        <v>2.63</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Deportes La Serena</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -7539,15 +8043,19 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -7558,31 +8066,35 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Deportes La Serena - Deportes Limache: 1:6</t>
+          <t>Kun Khalifat Football Club ✓ - Enyimba Aba: 1:0</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2.63</v>
+        <v>1.42</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Deportes La Serena</t>
+          <t>Kun Khalifat Football Club</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H204" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7593,15 +8105,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club - Enyimba Aba: 1:0</t>
+          <t>FK FAP Priboj - FK Jedinstvo Ub X: 2:0</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7612,9 +8124,13 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
@@ -7628,15 +8144,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FK FAP Priboj - FK Jedinstvo Ub: 2:0</t>
+          <t>FC Tyumen  - Alania Vladikavkaz: 12:00</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>FC Tyumen</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7644,15 +8160,15 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -7663,15 +8179,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FC Tyumen - Alania Vladikavkaz: 12:00</t>
+          <t>CA Independiente ✓ - CD Universitario: 2:0</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>FC Tyumen</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -7682,12 +8198,16 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H207" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -7698,15 +8218,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CA Independiente - CD Universitario: 2:0</t>
+          <t>Deportivo Guastatoya  - Comunicaciones FC: 23:00</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.15</v>
+        <v>1.74</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Deportivo Guastatoya</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7719,10 +8239,10 @@
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7733,15 +8253,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Deportivo Guastatoya - Comunicaciones FC: 23:00</t>
+          <t>Dorados de Sinaloa - CF Atlante : 0:0</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Deportivo Guastatoya</t>
+          <t>CF Atlante</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7749,15 +8269,15 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -7768,19 +8288,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa - CF Atlante: 0:0</t>
+          <t>Young Apostles FC  - Bechem United FC: 16:00</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CF Atlante</t>
+          <t>Young Apostles FC</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7789,10 +8309,10 @@
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -7803,28 +8323,32 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Young Apostles FC - Bechem United FC: 16:00</t>
+          <t>Chad X - Central African Republic: 2:3</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Young Apostles FC</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H211" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I211" t="b">
         <v>0</v>
@@ -7838,31 +8362,35 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Chad - Central African Republic: 2:3</t>
+          <t>Herrera FC - Veraguas United FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Veraguas United FC</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H212" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -7873,15 +8401,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Herrera FC - Veraguas United FC: 0:2</t>
+          <t>Neftchi Kochkor-Ata  - Alga Bishkek: 14:00</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Veraguas United FC</t>
+          <t>Neftchi Kochkor-Ata</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -7894,10 +8422,10 @@
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -7908,15 +8436,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Neftchi Kochkor-Ata - Alga Bishkek: 14:00</t>
+          <t>CA Aldosivi - CA Huracán X: 2:0</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Neftchi Kochkor-Ata</t>
+          <t>CA Huracán</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -7927,12 +8455,16 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H214" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -7943,28 +8475,32 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CA Aldosivi - CA Huracán: 2:0</t>
+          <t>FK Podgorica - OSK Igalo X: 1:0</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>CA Huracán</t>
+          <t>OSK Igalo</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
@@ -7978,19 +8514,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FK Podgorica - OSK Igalo: 1:0</t>
+          <t>ND Ilirija 1911  - NK Krka: 1:1</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2.02</v>
+        <v>0.88</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>OSK Igalo</t>
+          <t>ND Ilirija 1911</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -7999,10 +8535,10 @@
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -8013,15 +8549,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ND Ilirija 1911 - NK Krka: 1:1</t>
+          <t>Qingdao Red Lions  - Guangxi Pingguo: 1:1</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ND Ilirija 1911</t>
+          <t>Qingdao Red Lions</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -8029,7 +8565,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -8048,19 +8584,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Qingdao Red Lions - Guangxi Pingguo: 1:1</t>
+          <t>Panargiakos APO - PAE Chania : 0:0</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.55</v>
+        <v>1.41</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Qingdao Red Lions</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -8069,44 +8605,9 @@
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Sun Oct 12</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Panargiakos APO - PAE Chania: 0:0</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>PAE Chania</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="b">
         <v>1</v>
       </c>
     </row>
